--- a/p.xlsx
+++ b/p.xlsx
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.156151009797953</v>
+        <v>0.1273526138962603</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5444283475012596</v>
+        <v>0.5318929498673938</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2209122061342954</v>
+        <v>0.2823925860171843</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2632826209769104</v>
+        <v>0.205244098533247</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3523991813682176</v>
+        <v>0.3353066950893038</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3889388180997972</v>
+        <v>0.3889140611707385</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2986718181599044</v>
+        <v>0.1841526430603799</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.35472453964826</v>
+        <v>0.3802231753015507</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3388906028358416</v>
+        <v>0.3016615532682947</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4195791452529685</v>
+        <v>0.4436733358219311</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2223489820397044</v>
+        <v>0.1357004664125976</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4795375506701191</v>
+        <v>0.4483330430295527</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4160597229473253</v>
+        <v>0.2738255522858728</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6203807822967367</v>
+        <v>0.5266761026326325</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1928379912678793</v>
+        <v>0.1306227361193889</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4729889938894333</v>
+        <v>0.4230660683075715</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6391408075467523</v>
+        <v>0.5318918953829838</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6303666207833096</v>
+        <v>0.5226521015373791</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4287846482722326</v>
+        <v>0.3639572965966687</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6101773357784951</v>
+        <v>0.5128977083385214</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5933527768663529</v>
+        <v>0.4954780486812683</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4146721814553302</v>
+        <v>0.3324772620365295</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2679946310721687</v>
+        <v>0.2535501948678524</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.4239128658034044</v>
+        <v>0.3611697965101865</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.2204747852491059</v>
+        <v>0.3850600506512525</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.2978574371093974</v>
+        <v>0.1175370715795541</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.5321772844651439</v>
+        <v>0.5022299450669752</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.2834108714213043</v>
+        <v>0.178111778064958</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.3167519065596279</v>
+        <v>0.387043781020725</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -622,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.3176969255704701</v>
+        <v>0.3105144821185327</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -630,7 +630,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.4146394277131294</v>
+        <v>0.3630939084252489</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -638,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.5916222539307885</v>
+        <v>0.5231777396188925</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -646,7 +646,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.6047729982870548</v>
+        <v>0.5318929488696184</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.5751127142366173</v>
+        <v>0.5218768795001147</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -662,7 +662,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1798625558196271</v>
+        <v>0.1226248826041177</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -670,7 +670,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.3512324298497713</v>
+        <v>0.3104645959444457</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -678,7 +678,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.3183266527580936</v>
+        <v>0.312225908259621</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -686,7 +686,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.3113559884147491</v>
+        <v>0.2437792568183322</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -694,7 +694,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.5799562368297184</v>
+        <v>0.5302204434654403</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -702,7 +702,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.5612247529146016</v>
+        <v>0.5190178680481503</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -710,7 +710,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.1626506159445719</v>
+        <v>0.1048159934377721</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -718,7 +718,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.5687056564357179</v>
+        <v>0.5290294269535588</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -726,7 +726,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.18064211275976</v>
+        <v>0.1103210650140333</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -734,7 +734,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.5636537795216164</v>
+        <v>0.531882711923657</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.1535681478315659</v>
+        <v>0.06507740716598515</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -750,7 +750,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.3792767537816121</v>
+        <v>0.4505604919117119</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -758,7 +758,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.2919570645604491</v>
+        <v>0.211202331066432</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -766,7 +766,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.5622641499819119</v>
+        <v>0.5091769311646988</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -774,7 +774,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.2659797525802302</v>
+        <v>0.1915168666002672</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -782,7 +782,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.5654164352592378</v>
+        <v>0.5318500923464897</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -790,7 +790,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.4419720954928246</v>
+        <v>0.1606265059593558</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -798,7 +798,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.2715618602409696</v>
+        <v>0.3590582020925754</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -806,7 +806,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.4279270430910417</v>
+        <v>0.4381012305971927</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -814,7 +814,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.2268221659816381</v>
+        <v>0.1297108778725945</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -822,7 +822,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.3096876669079769</v>
+        <v>0.237726269273524</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -830,7 +830,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.275713350654127</v>
+        <v>0.180358719895829</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -838,7 +838,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.5583821037325286</v>
+        <v>0.5293426632984561</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -846,7 +846,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.2273287356927601</v>
+        <v>0.1857484582978378</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -854,7 +854,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.4181698272739109</v>
+        <v>0.1937277482109772</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -862,7 +862,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.2444005203339382</v>
+        <v>0.3844633257681035</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -870,7 +870,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.323419130944401</v>
+        <v>0.2022130901523416</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -878,7 +878,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.3722218651288065</v>
+        <v>0.4021612955564873</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -886,7 +886,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.5341825694049932</v>
+        <v>0.2169027127037662</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -894,7 +894,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.5571849201562536</v>
+        <v>0.5318858154832437</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -902,7 +902,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.2041150174370389</v>
+        <v>0.1880710283216263</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -910,7 +910,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.3684448934461892</v>
+        <v>0.3695031813414523</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -918,7 +918,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.3373567363115849</v>
+        <v>0.3421523493280121</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -926,7 +926,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.4002751080270463</v>
+        <v>0.3522250278119686</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -934,7 +934,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.5501286531526536</v>
+        <v>0.5314836445612501</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -942,7 +942,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.4875361736281542</v>
+        <v>0.5033051177354515</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -950,7 +950,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.2533362042004858</v>
+        <v>0.1613028084874276</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -958,7 +958,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.5542884823372719</v>
+        <v>0.5314817345854949</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -966,7 +966,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.2848540570959914</v>
+        <v>0.5314225950458741</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -974,7 +974,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.2999332754703832</v>
+        <v>0.168620120571457</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -982,7 +982,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.537170766396569</v>
+        <v>0.4933591270887408</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -990,7 +990,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.5266612513784441</v>
+        <v>0.1558098200810406</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -998,7 +998,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.2647242897072661</v>
+        <v>0.5220396678463334</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.5489236772308888</v>
+        <v>0.5318925539002812</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.2439547045465737</v>
+        <v>0.4974422714453427</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5473701689019381</v>
+        <v>0.5317604167153407</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.1973329207937612</v>
+        <v>0.3716097321139665</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.4200851108361019</v>
+        <v>0.3824530117822936</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.4304524378654359</v>
+        <v>0.4462386460094074</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.5198458124908126</v>
+        <v>0.5155211810860115</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.3642378267265451</v>
+        <v>0.4879677806145019</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.4780394359781581</v>
+        <v>0.3609787267645161</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.535454598236965</v>
+        <v>0.5210147545141701</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.4440653850215424</v>
+        <v>0.1860218158919024</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.473872017045646</v>
+        <v>0.5091347662879039</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.3024487635812635</v>
+        <v>0.2927703872810148</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.5440432345987919</v>
+        <v>0.5303831853362639</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.5409542311190794</v>
+        <v>0.05719023513690413</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.542699658525932</v>
+        <v>0.5289082137891061</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.2701266550911595</v>
+        <v>0.1068842820627618</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.5391447061040122</v>
+        <v>0.5014189559033991</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.5399310232253314</v>
+        <v>0.5313312394051048</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.391983234193228</v>
+        <v>0.5317217176633492</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.2881622943944772</v>
+        <v>0.1596282229868452</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.5370757853234174</v>
+        <v>0.5318929485978933</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.5364443640331051</v>
+        <v>0.5318395788978217</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.4554905535094879</v>
+        <v>0.4230737007446083</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.5345252891775576</v>
+        <v>0.5318929498988278</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.3631562021338524</v>
+        <v>0.5318929498771819</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.532674760109383</v>
+        <v>0.5202799891839027</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.53196430483347</v>
+        <v>0.5318929498988273</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.4783013978919373</v>
+        <v>0.5046098608192643</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.2850851774409316</v>
+        <v>0.127929366655199</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.3995829679270093</v>
+        <v>0.4198929360470128</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.5309284151131259</v>
+        <v>0.5311480816676843</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.5311564605747049</v>
+        <v>0.5318929447220599</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.5211154208292859</v>
+        <v>0.5318929498988259</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.4079552893395033</v>
+        <v>0.5318865381177149</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.5307870594410191</v>
+        <v>0.5318926335433496</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.5192657014571602</v>
+        <v>0.5317212792734267</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.5308485008043304</v>
+        <v>0.5306216507592409</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.5307126896783659</v>
+        <v>0.1560501416202874</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.4776037823004071</v>
+        <v>0.5317864127807228</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.530195854488243</v>
+        <v>0.5318929222894295</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.5300131746180211</v>
+        <v>0.5318929497293069</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.4264283093613403</v>
+        <v>0.3521227126030845</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.5295760571079783</v>
+        <v>0.5318929498988278</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.5297341110218822</v>
+        <v>0.5318929498988278</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.5298007489052317</v>
+        <v>0.5318406035970311</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.5264319017225096</v>
+        <v>0.5318929190076783</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.529509876194732</v>
+        <v>0.5318811987233838</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.5287575822727262</v>
+        <v>0.5318929498155963</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.528804161772493</v>
+        <v>0.4676324310686467</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.5278189153324606</v>
+        <v>0.5318929498988278</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.3288937871812423</v>
+        <v>0.5316417514353066</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.5274458539351488</v>
+        <v>0.5318929487698515</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.5275262717474732</v>
+        <v>0.5318929498988278</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.5273641752245103</v>
+        <v>0.5318929498988191</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.5269325873741835</v>
+        <v>0.08912811820898565</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.339092287069782</v>
+        <v>0.518695211304753</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.3806173421375981</v>
+        <v>0.5318929498988235</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.525825514317677</v>
+        <v>0.5318929498988273</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.4426576462368528</v>
+        <v>0.5318929420250382</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.5255767249424974</v>
+        <v>0.3401617867123537</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.3656367621261709</v>
+        <v>0.5198357939745334</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.3966223626499882</v>
+        <v>0.5318929498988269</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.5259330319571319</v>
+        <v>0.5318834583750469</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.5261908584810991</v>
+        <v>0.5318929498988278</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.5260263324204241</v>
+        <v>0.5318929498988278</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.519355936675989</v>
+        <v>0.53189242538871</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.5244630622173466</v>
+        <v>0.4771883535432798</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.4485647612336462</v>
+        <v>0.5318929480921031</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.5220766886649206</v>
+        <v>0.5269784771406076</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.5208856958128109</v>
+        <v>0.5318929498988273</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.5193105060086356</v>
+        <v>0.5318929498987646</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.5173650845576625</v>
+        <v>0.5318929498988257</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.4524131544526442</v>
+        <v>0.4237697996584809</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.5131359554048832</v>
+        <v>0.5318928970117492</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.5110749290020148</v>
+        <v>0.5060763081344487</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.5089728970864417</v>
+        <v>0.2964987668214125</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.5063406998990077</v>
+        <v>0.5318929498988278</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.4899959834002455</v>
+        <v>0.5291034890430397</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.4957460387971843</v>
+        <v>0.4922843080735246</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.4980523078899076</v>
+        <v>0.4591260437379943</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.5086168937736777</v>
+        <v>0.5309910506349691</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.4931214009456311</v>
+        <v>0.5318734800996481</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.5227223642440003</v>
+        <v>0.5318728404212367</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.4888606294724701</v>
+        <v>0.4721728577696785</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.5298958672607014</v>
+        <v>0.5318929498988278</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.531259299527498</v>
+        <v>0.5318929485416639</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.5498029539975788</v>
+        <v>0.5158942041163744</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.4828221053677778</v>
+        <v>0.530982685446493</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.5582556743655491</v>
+        <v>0.5017506759767885</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.4788242670755297</v>
+        <v>0.5318912730035821</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.5720276532916118</v>
+        <v>0.5318929481989351</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.5056888226669728</v>
+        <v>0.5318929498988278</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.5843163676789581</v>
+        <v>0.5125711875783108</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.5935748479323769</v>
+        <v>0.4584789284265123</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.5996704568437307</v>
+        <v>0.2135732084163292</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.4719601182853924</v>
+        <v>0.53189268847602</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.5249969960488751</v>
+        <v>0.4956962436656436</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1790,7 +1790,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.5716339474954452</v>
+        <v>0.1698827052861853</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.4687377795523267</v>
+        <v>0.232145418740085</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.6036166813392572</v>
+        <v>0.1101297067915764</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1814,7 +1814,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.5174564023609289</v>
+        <v>0.5279750893240877</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.464825874361164</v>
+        <v>0.5318770099471949</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.6205375154657072</v>
+        <v>0.531892949898801</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.6423704688824189</v>
+        <v>0.5318929498988278</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.4632653015466323</v>
+        <v>0.5318482829168205</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.6040298061483445</v>
+        <v>0.5318929498751789</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.4607151503480955</v>
+        <v>0.5318929498988278</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.6117234432923979</v>
+        <v>0.5318764031162757</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.6535580939277565</v>
+        <v>0.1640848776898081</v>
       </c>
     </row>
   </sheetData>
